--- a/teachers.xlsx
+++ b/teachers.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Att_School\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1D5EB-77F4-440E-B116-C9CB832BF0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B350733D-4A58-419E-BAF9-73A590F7ACD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="254">
   <si>
     <t>66484</t>
   </si>
@@ -535,12 +529,264 @@
   </si>
   <si>
     <t>200580</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>26776000095</t>
+  </si>
+  <si>
+    <t>28140001867</t>
+  </si>
+  <si>
+    <t>27481805980</t>
+  </si>
+  <si>
+    <t>27381801113</t>
+  </si>
+  <si>
+    <t>27281805880</t>
+  </si>
+  <si>
+    <t>29478801303</t>
+  </si>
+  <si>
+    <t>29440001964</t>
+  </si>
+  <si>
+    <t>27579201358</t>
+  </si>
+  <si>
+    <t>27581802845</t>
+  </si>
+  <si>
+    <t>28681811131</t>
+  </si>
+  <si>
+    <t>28640001207</t>
+  </si>
+  <si>
+    <t>27481801946</t>
+  </si>
+  <si>
+    <t>27640001299</t>
+  </si>
+  <si>
+    <t>28381807266</t>
+  </si>
+  <si>
+    <t>28081808164</t>
+  </si>
+  <si>
+    <t>27481807182</t>
+  </si>
+  <si>
+    <t>26981805053</t>
+  </si>
+  <si>
+    <t>28740000985</t>
+  </si>
+  <si>
+    <t>27981808881</t>
+  </si>
+  <si>
+    <t>28478801966</t>
+  </si>
+  <si>
+    <t>26540000552</t>
+  </si>
+  <si>
+    <t>28788600884</t>
+  </si>
+  <si>
+    <t>27981809642</t>
+  </si>
+  <si>
+    <t>28576003100</t>
+  </si>
+  <si>
+    <t>27881806822</t>
+  </si>
+  <si>
+    <t>26876001001</t>
+  </si>
+  <si>
+    <t>27181801969</t>
+  </si>
+  <si>
+    <t>27940001338</t>
+  </si>
+  <si>
+    <t>27640001424</t>
+  </si>
+  <si>
+    <t>29081806831</t>
+  </si>
+  <si>
+    <t>28040001272</t>
+  </si>
+  <si>
+    <t>27481806022</t>
+  </si>
+  <si>
+    <t>27181804182</t>
+  </si>
+  <si>
+    <t>28481803002</t>
+  </si>
+  <si>
+    <t>27981803300</t>
+  </si>
+  <si>
+    <t>28076003597</t>
+  </si>
+  <si>
+    <t>29240001613</t>
+  </si>
+  <si>
+    <t>27273600544</t>
+  </si>
+  <si>
+    <t>27578800525</t>
+  </si>
+  <si>
+    <t>28081806654</t>
+  </si>
+  <si>
+    <t>29240002360</t>
+  </si>
+  <si>
+    <t>28176002156</t>
+  </si>
+  <si>
+    <t>27081800608</t>
+  </si>
+  <si>
+    <t>28399900465</t>
+  </si>
+  <si>
+    <t>27176001316</t>
+  </si>
+  <si>
+    <t>27481805703</t>
+  </si>
+  <si>
+    <t>28840001722</t>
+  </si>
+  <si>
+    <t>26340000416</t>
+  </si>
+  <si>
+    <t>28181807633</t>
+  </si>
+  <si>
+    <t>27081804726</t>
+  </si>
+  <si>
+    <t>28740001798</t>
+  </si>
+  <si>
+    <t>27581805614</t>
+  </si>
+  <si>
+    <t>28281804906</t>
+  </si>
+  <si>
+    <t>27881808035</t>
+  </si>
+  <si>
+    <t>27581805828</t>
+  </si>
+  <si>
+    <t>27181805221</t>
+  </si>
+  <si>
+    <t>26181801019</t>
+  </si>
+  <si>
+    <t>27181804798</t>
+  </si>
+  <si>
+    <t>29440001940</t>
+  </si>
+  <si>
+    <t>27876002031</t>
+  </si>
+  <si>
+    <t>26940000505</t>
+  </si>
+  <si>
+    <t>27481805418</t>
+  </si>
+  <si>
+    <t>26940001091</t>
+  </si>
+  <si>
+    <t>27281804392</t>
+  </si>
+  <si>
+    <t>28140001513</t>
+  </si>
+  <si>
+    <t>27681805811</t>
+  </si>
+  <si>
+    <t>27381804950</t>
+  </si>
+  <si>
+    <t>27681806089</t>
+  </si>
+  <si>
+    <t>27681805053</t>
+  </si>
+  <si>
+    <t>27040001234</t>
+  </si>
+  <si>
+    <t>29399900528</t>
+  </si>
+  <si>
+    <t>27481807175</t>
+  </si>
+  <si>
+    <t>27381803356</t>
+  </si>
+  <si>
+    <t>26747800019</t>
+  </si>
+  <si>
+    <t>29440002588</t>
+  </si>
+  <si>
+    <t>28040001754</t>
+  </si>
+  <si>
+    <t>27578800471</t>
+  </si>
+  <si>
+    <t>28878801494</t>
+  </si>
+  <si>
+    <t>28563403523</t>
+  </si>
+  <si>
+    <t>28350400940</t>
+  </si>
+  <si>
+    <t>27873601590</t>
+  </si>
+  <si>
+    <t>28879201609</t>
+  </si>
+  <si>
+    <t>28173601963</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,18 +1124,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB291FAC-75DA-4D33-B52E-64A8B7BDBDD5}">
-  <dimension ref="A1:D84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A84"/>
+      <selection activeCell="E2" sqref="E2:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,9 +1143,10 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -912,8 +1159,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -926,8 +1176,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -940,8 +1193,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -954,8 +1210,11 @@
       <c r="D4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -968,8 +1227,11 @@
       <c r="D5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -982,8 +1244,11 @@
       <c r="D6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -996,8 +1261,11 @@
       <c r="D7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1010,8 +1278,11 @@
       <c r="D8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1024,8 +1295,11 @@
       <c r="D9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1038,8 +1312,11 @@
       <c r="D10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1052,8 +1329,11 @@
       <c r="D11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1066,8 +1346,11 @@
       <c r="D12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1080,8 +1363,11 @@
       <c r="D13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1094,8 +1380,11 @@
       <c r="D14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1108,8 +1397,11 @@
       <c r="D15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1122,8 +1414,11 @@
       <c r="D16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1136,8 +1431,11 @@
       <c r="D17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1150,8 +1448,11 @@
       <c r="D18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1164,8 +1465,11 @@
       <c r="D19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1178,8 +1482,11 @@
       <c r="D20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1192,8 +1499,11 @@
       <c r="D21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1206,8 +1516,11 @@
       <c r="D22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1220,8 +1533,11 @@
       <c r="D23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1234,8 +1550,11 @@
       <c r="D24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1248,8 +1567,11 @@
       <c r="D25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1262,8 +1584,11 @@
       <c r="D26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1276,8 +1601,11 @@
       <c r="D27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1290,8 +1618,11 @@
       <c r="D28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1304,8 +1635,11 @@
       <c r="D29" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1318,8 +1652,11 @@
       <c r="D30" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1332,8 +1669,11 @@
       <c r="D31" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1346,8 +1686,11 @@
       <c r="D32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1360,8 +1703,11 @@
       <c r="D33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1374,8 +1720,11 @@
       <c r="D34" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1388,8 +1737,11 @@
       <c r="D35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1402,8 +1754,11 @@
       <c r="D36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1416,8 +1771,11 @@
       <c r="D37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1430,8 +1788,11 @@
       <c r="D38" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1444,8 +1805,11 @@
       <c r="D39" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1458,8 +1822,11 @@
       <c r="D40" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1472,8 +1839,11 @@
       <c r="D41" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1486,8 +1856,11 @@
       <c r="D42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1500,8 +1873,11 @@
       <c r="D43" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1514,8 +1890,11 @@
       <c r="D44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1528,8 +1907,11 @@
       <c r="D45" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1542,8 +1924,11 @@
       <c r="D46" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1556,8 +1941,11 @@
       <c r="D47" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1570,8 +1958,11 @@
       <c r="D48" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1584,8 +1975,11 @@
       <c r="D49" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1598,8 +1992,11 @@
       <c r="D50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1612,8 +2009,11 @@
       <c r="D51" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1626,8 +2026,11 @@
       <c r="D52" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1640,8 +2043,11 @@
       <c r="D53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1654,8 +2060,11 @@
       <c r="D54" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1668,8 +2077,11 @@
       <c r="D55" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1682,8 +2094,11 @@
       <c r="D56" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1696,8 +2111,11 @@
       <c r="D57" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1710,8 +2128,11 @@
       <c r="D58" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1724,8 +2145,11 @@
       <c r="D59" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1738,8 +2162,11 @@
       <c r="D60" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1752,8 +2179,11 @@
       <c r="D61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1766,8 +2196,11 @@
       <c r="D62" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1780,8 +2213,11 @@
       <c r="D63" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1794,8 +2230,11 @@
       <c r="D64" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1808,8 +2247,11 @@
       <c r="D65" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1822,8 +2264,11 @@
       <c r="D66" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1836,8 +2281,11 @@
       <c r="D67" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1850,8 +2298,11 @@
       <c r="D68" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1864,8 +2315,11 @@
       <c r="D69" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1878,8 +2332,11 @@
       <c r="D70" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1892,8 +2349,11 @@
       <c r="D71" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1906,8 +2366,11 @@
       <c r="D72" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1920,8 +2383,11 @@
       <c r="D73" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1934,8 +2400,11 @@
       <c r="D74" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1948,8 +2417,11 @@
       <c r="D75" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1962,8 +2434,11 @@
       <c r="D76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1976,8 +2451,11 @@
       <c r="D77" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1990,8 +2468,11 @@
       <c r="D78" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2004,8 +2485,11 @@
       <c r="D79" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2018,8 +2502,11 @@
       <c r="D80" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2032,8 +2519,11 @@
       <c r="D81" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2046,8 +2536,11 @@
       <c r="D82" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2060,8 +2553,11 @@
       <c r="D83" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2073,6 +2569,9 @@
       </c>
       <c r="D84" t="s">
         <v>169</v>
+      </c>
+      <c r="E84" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/teachers.xlsx
+++ b/teachers.xlsx
@@ -1,25 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALMAS\Att_School\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7774F9CC-4580-4E64-8660-723C50A497A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="teachers" sheetId="1" r:id="rId1"/>
+    <sheet name="teachers (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="teachers" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="503">
   <si>
     <t>66484</t>
   </si>
@@ -781,12 +800,759 @@
   </si>
   <si>
     <t>28173601963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد عزت جبر محمود </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اشرف ابراهيم عبدالله محمد حسين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ايمن عيد عبدالعظيم عبد الحليم </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بخيت جارالله حمد درعه المرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جابر حمد جابر على فاران </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> دغش سالم بريك الجربوعى المرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سالم حميدى سالم حميدى العذبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سالم محمد على البريص المرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شجاع علي محمد العابد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عبدالعزيز خيرمحمد رجب رمضان رئيسى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عطيه ابراهيم عطيه شلبى شلبى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> علاءالدين محمود جمعة عبيد عبدالرحمن </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غانم راجح حنظل الفهيده المري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فريد الماس مبارك فيروز العبدالله </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فهد الدرهم </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قنديل أحمد قنديل توفيق </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ماهر محمد راضى عامودى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد ابراهيم ابراهيم فرج ندا </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد احمد البدوي عبدالعزيز البديوي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد احمد مصطفي محمد الكواليني </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد السيد العربى محمود جبران </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد أيوب محمود فتح الباب </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد حفيض على ال صفور المرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد سعيد فرج النابت المري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبدالرحمن الزين باشري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبدالله محمد راشد الشيبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد على محمد الربيط المرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد علي العبود ابو العناز </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد محمود محمد محمد اللقاني </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مصطفى قاسم احمد علي الذروي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وسام كمال ابراهيم محمود نصر </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ياسر السيد احمد احمد اسماعيل </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ياسر فوزي محمد درغام </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ياسر محمد عبدالحميد السمان محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سعيد  لياوراسي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ابراهيم احمد محمد حموده </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ابراهيم عبداللطيف عياد البداينه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ابراهيم عبدالله ابراهيم وهدان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد ابراهيم عبدالخالق غازى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد حامد عبدالعليم عبدالله </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد عادل عبدالله بكر </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد عبدالله عبدالغنى احمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد عطا محمد موسى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد محمد عباس كرمل </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد محمد عثمان امام </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد محمود  الشيخ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> احمد منتصر وهبي ميري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اركان احمد حسين عنانزه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسامه عمر محمد على </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسلام حمدي غنيم سليمان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اشرف عايد عوض حسين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اشرف محمود محمد احمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الحسين  سوسي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المختار  حدامين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المعزبالله طه حسين طه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> انيس الجيلاني  شعبان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ايمن سيد دسوقى محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جلال محمد نجيب القاسمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جميل عبدالرحمن  العلى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جواد  الاطرش </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حجازي علي احمد عمري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حسن عمر حسن عثمان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حمدى عبدالجيد سالم مقلد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خالد السيد السطوحي سرور </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خالد صالح ادريس عياد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خالد محمد سيد محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خميس حمد خميس الساعدي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> رمضان ربيع خضري سليمان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> زكريا  قصاب </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامر عبدالله سعد الجابر </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سعيد  يمين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سعيد كمال عبدالحميد محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سيد ربيع عبدالفتاح جنيدي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صبرى عثمان على السعدى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صبري بن رضى العمري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عامر صالح  التركي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عباس خضر  الطارش </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عبدالرحمن سالم مبارك بن نوره المرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عبدالرحمن محمد عبدالمولى زيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عبدالكريم محمدسالم شاكر نوفل </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عبدالوهاب جمال محمد الرجوب </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عروه حسين محب الدين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عصام محمد نعمان قرش </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> علي  ناصري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> على الشيخ ادريس صالح </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عماد عزب سلمان اسماعيل </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عمر يونس  غندور </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عيد احمد جنيدى على </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غسان غازي بدر العمري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فضل الله محمد ابراهيم دفع الله </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مالك ابرهيم  كنجوالنجار </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد ابراهيم عبدالله وهدان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد السعيد ابراهيم حماد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد جباره عجب سيدو فضل المولى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد جهاد محمد عصفور </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد زين العابدين محمد عوض الله رزق </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد طه  حسون </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبدالحميد عبدالرحيم الشاقلدي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبدالرحمن حسن عبدالرحمن </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبدالمنعم محمد السيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبد الرؤوف علي القصاص </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عزام نمر العمر </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد ملاحى محمود طافش </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد يوسف محمد الصفوري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمدحافظ محمد  عبدالخالق </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود درويش مصطفى الغفاري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود عبدالوهاب احمد مصلح </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود عطاالله  ابونبوت </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود مبروك السيد عيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود متولى عبدالحي البدوى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود محمد عبدالمحسن حداد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مهند حسن محمود الزعبي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مهند محمد حسين خفاجه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مؤيد اسعد حسين دناوي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ناصر السر ناصر محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هاني محمد حسين نصار </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هشام  لعموري </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هشام احمد محمد الجزار </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هيثم رجا عبيد الحنيفات </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هيثم علي  سباهي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وائل حسن عبدالباقي عبدالله </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ياسين بن الحبيب بريكي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يوسف  عبه جى </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يوسف ضو  حامدي </t>
+  </si>
+  <si>
+    <t>s.liaouraci2510@education.qa</t>
+  </si>
+  <si>
+    <t>i.hamouda0203@education.qa</t>
+  </si>
+  <si>
+    <t>i.albadaineh0310@education.qa</t>
+  </si>
+  <si>
+    <t>i.wahdan2905@education.qa</t>
+  </si>
+  <si>
+    <t>a.ibrahim16063@education.qa</t>
+  </si>
+  <si>
+    <t>a.abdallah0904@education.qa</t>
+  </si>
+  <si>
+    <t>a.bakr2506@education.qa</t>
+  </si>
+  <si>
+    <t>a.ahmed2712@education.qa</t>
+  </si>
+  <si>
+    <t>a.mahmoud05121@education.qa</t>
+  </si>
+  <si>
+    <t>a.muosa1004@education.qa</t>
+  </si>
+  <si>
+    <t>a.karamel2903@education.qa</t>
+  </si>
+  <si>
+    <t>a.imam0309@education.qa</t>
+  </si>
+  <si>
+    <t>a.elshaikh2001@education.qa</t>
+  </si>
+  <si>
+    <t>a.miri0306@education.qa</t>
+  </si>
+  <si>
+    <t>a.ananzeh2206@education.qa</t>
+  </si>
+  <si>
+    <t>o.ali0503@education.qa</t>
+  </si>
+  <si>
+    <t>i.soliman1904@education.qa</t>
+  </si>
+  <si>
+    <t>a.hussein2810@education.qa</t>
+  </si>
+  <si>
+    <t>a.hussein0403@education.qa</t>
+  </si>
+  <si>
+    <t>a.mohamed14072@education.qa</t>
+  </si>
+  <si>
+    <t>e.soussi0802@education.qa</t>
+  </si>
+  <si>
+    <t>e.mayine0101@education.qa</t>
+  </si>
+  <si>
+    <t>e.taha0101@education.qa</t>
+  </si>
+  <si>
+    <t>a.chaabane0508@education.qa</t>
+  </si>
+  <si>
+    <t>a.mohamed0305@education.qa</t>
+  </si>
+  <si>
+    <t>a.abdelhalem0804@education.qa</t>
+  </si>
+  <si>
+    <t>b.marri28053@education.qa</t>
+  </si>
+  <si>
+    <t>j.faran2501@education.qa</t>
+  </si>
+  <si>
+    <t>j.guesmi2009@education.qa</t>
+  </si>
+  <si>
+    <t>j.alali2402@education.qa</t>
+  </si>
+  <si>
+    <t>j.latrache0101@education.qa</t>
+  </si>
+  <si>
+    <t>h.omari0803@education.qa</t>
+  </si>
+  <si>
+    <t>h.osman1512@education.qa</t>
+  </si>
+  <si>
+    <t>h.maklad2312@education.qa</t>
+  </si>
+  <si>
+    <t>k.sorour0106@education.qa</t>
+  </si>
+  <si>
+    <t>k.ayaad2507@education.qa</t>
+  </si>
+  <si>
+    <t>k.mohamed2507@education.qa</t>
+  </si>
+  <si>
+    <t>k.alsaadi2203@education.qa</t>
+  </si>
+  <si>
+    <t>d.al-marri0601@education.qa</t>
+  </si>
+  <si>
+    <t>r.solyman1010@education.qa</t>
+  </si>
+  <si>
+    <t>z.kasap0401@education.qa</t>
+  </si>
+  <si>
+    <t>s.adba0305@education.qa</t>
+  </si>
+  <si>
+    <t>s.al-marri16042@education.qa</t>
+  </si>
+  <si>
+    <t>s.aljaber0111@education.qa</t>
+  </si>
+  <si>
+    <t>s.yamine1005@education.qa</t>
+  </si>
+  <si>
+    <t>s.mohamed1507@education.qa</t>
+  </si>
+  <si>
+    <t>s.genidi2911@education.qa</t>
+  </si>
+  <si>
+    <t>s.alabed2308@education.qa</t>
+  </si>
+  <si>
+    <t>s.alsaadi0910@education.qa</t>
+  </si>
+  <si>
+    <t>s.elamri1408@education.qa</t>
+  </si>
+  <si>
+    <t>a.alturky0101@education.qa</t>
+  </si>
+  <si>
+    <t>a.altaresh0104@education.qa</t>
+  </si>
+  <si>
+    <t>a.marri24101@education.qa</t>
+  </si>
+  <si>
+    <t>a.zeid1201@education.qa</t>
+  </si>
+  <si>
+    <t>a.raeissi1305@education.qa</t>
+  </si>
+  <si>
+    <t>a.nofal0608@education.qa</t>
+  </si>
+  <si>
+    <t>a.alrjoub2902@education.qa</t>
+  </si>
+  <si>
+    <t>o.eddin0902@education.qa</t>
+  </si>
+  <si>
+    <t>i.kersh1907@education.qa</t>
+  </si>
+  <si>
+    <t>a.shalaby3011@education.qa</t>
+  </si>
+  <si>
+    <t>a.abdelrahman16081@education.qa</t>
+  </si>
+  <si>
+    <t>a.nassiri1505@education.qa</t>
+  </si>
+  <si>
+    <t>a.saleh010125@education.qa</t>
+  </si>
+  <si>
+    <t>e.ismail1711@education.qa</t>
+  </si>
+  <si>
+    <t>o.ghandour0101@education.qa</t>
+  </si>
+  <si>
+    <t>e.ali1512@education.qa</t>
+  </si>
+  <si>
+    <t>g.almarri19011@education.qa</t>
+  </si>
+  <si>
+    <t>g.alomari2012@education.qa</t>
+  </si>
+  <si>
+    <t>f.al-abdulla0212@education.qa</t>
+  </si>
+  <si>
+    <t>f.dafaalla0105@education.qa</t>
+  </si>
+  <si>
+    <t>f.al-derhim1003@education.qa</t>
+  </si>
+  <si>
+    <t>k.tawfik2108@education.qa</t>
+  </si>
+  <si>
+    <t>m.kanjoualnajjar0109@education.qa</t>
+  </si>
+  <si>
+    <t>m.amoudi3007@education.qa</t>
+  </si>
+  <si>
+    <t>m.nada0103@education.qa</t>
+  </si>
+  <si>
+    <t>m.wahdan2906@education.qa</t>
+  </si>
+  <si>
+    <t>m.elbediwy2904@education.qa</t>
+  </si>
+  <si>
+    <t>m.alkawaliny0709@education.qa</t>
+  </si>
+  <si>
+    <t>m.hamad2701@education.qa</t>
+  </si>
+  <si>
+    <t>m.gobran1310@education.qa</t>
+  </si>
+  <si>
+    <t>m.fathelbab1006@education.qa</t>
+  </si>
+  <si>
+    <t>m.fadalelmola2410@education.qa</t>
+  </si>
+  <si>
+    <t>m.asfour2111@education.qa</t>
+  </si>
+  <si>
+    <t>m.al-marri1212@education.qa</t>
+  </si>
+  <si>
+    <t>m.rezk0101@education.qa</t>
+  </si>
+  <si>
+    <t>m.almarri04024@education.qa</t>
+  </si>
+  <si>
+    <t>m.hassoun1101@education.qa</t>
+  </si>
+  <si>
+    <t>m.alshaqaldy2310@education.qa</t>
+  </si>
+  <si>
+    <t>m.bashry2605@education.qa</t>
+  </si>
+  <si>
+    <t>m.abdelrahman0403@education.qa</t>
+  </si>
+  <si>
+    <t>m.shiba0207@education.qa</t>
+  </si>
+  <si>
+    <t>m.elsayed0912@education.qa</t>
+  </si>
+  <si>
+    <t>m.elqasass1507@education.qa</t>
+  </si>
+  <si>
+    <t>m.alomar2508@education.qa</t>
+  </si>
+  <si>
+    <t>m.marri27011@education.qa</t>
+  </si>
+  <si>
+    <t>m.abualannaz0602@education.qa</t>
+  </si>
+  <si>
+    <t>m.ellakany1006@education.qa</t>
+  </si>
+  <si>
+    <t>m.tafesh1510@education.qa</t>
+  </si>
+  <si>
+    <t>m.alsafory1005@education.qa</t>
+  </si>
+  <si>
+    <t>m.abdalkhalig2602@education.qa</t>
+  </si>
+  <si>
+    <t>m.alghaffari0103@education.qa</t>
+  </si>
+  <si>
+    <t>m.moslih1802@education.qa</t>
+  </si>
+  <si>
+    <t>m.nabbout0509@education.qa</t>
+  </si>
+  <si>
+    <t>m.eid1309@education.qa</t>
+  </si>
+  <si>
+    <t>m.elbadwy0101@education.qa</t>
+  </si>
+  <si>
+    <t>m.hadad2002@education.qa</t>
+  </si>
+  <si>
+    <t>m.aldherwi2107@education.qa</t>
+  </si>
+  <si>
+    <t>m.alzoubi2801@education.qa</t>
+  </si>
+  <si>
+    <t>m.khafajah1604@education.qa</t>
+  </si>
+  <si>
+    <t>m.danawi0112@education.qa</t>
+  </si>
+  <si>
+    <t>n.mohamed010111@education.qa</t>
+  </si>
+  <si>
+    <t>h.nassar1206@education.qa</t>
+  </si>
+  <si>
+    <t>h.laamouri0101@education.qa</t>
+  </si>
+  <si>
+    <t>h.elgazzar0908@education.qa</t>
+  </si>
+  <si>
+    <t>h.alhuneafa0501@education.qa</t>
+  </si>
+  <si>
+    <t>h.sebahi2507@education.qa</t>
+  </si>
+  <si>
+    <t>w.abdalla1805@education.qa</t>
+  </si>
+  <si>
+    <t>w.kamal1105@education.qa</t>
+  </si>
+  <si>
+    <t>y.ismail0110@education.qa</t>
+  </si>
+  <si>
+    <t>y.dorgham0511@education.qa</t>
+  </si>
+  <si>
+    <t>y.mohamed1609@education.qa</t>
+  </si>
+  <si>
+    <t>y.briki1801@education.qa</t>
+  </si>
+  <si>
+    <t>y.abaci2306@education.qa</t>
+  </si>
+  <si>
+    <t>y.hamdi1807@education.qa</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,12 +1562,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -816,8 +1588,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,17 +1897,1994 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB29D2-F14C-4358-A818-AFF2BFF968D7}">
+  <dimension ref="A1:K84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" t="s">
+        <v>415</v>
+      </c>
+      <c r="H12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" t="s">
+        <v>416</v>
+      </c>
+      <c r="H13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" t="s">
+        <v>422</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" t="s">
+        <v>432</v>
+      </c>
+      <c r="H21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" t="s">
+        <v>444</v>
+      </c>
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" t="s">
+        <v>446</v>
+      </c>
+      <c r="H24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25" t="s">
+        <v>447</v>
+      </c>
+      <c r="H25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>414</v>
+      </c>
+      <c r="G27" t="s">
+        <v>453</v>
+      </c>
+      <c r="H27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s">
+        <v>417</v>
+      </c>
+      <c r="G28" t="s">
+        <v>459</v>
+      </c>
+      <c r="H28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" t="s">
+        <v>461</v>
+      </c>
+      <c r="H29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
+        <v>421</v>
+      </c>
+      <c r="G30" t="s">
+        <v>462</v>
+      </c>
+      <c r="H30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" t="s">
+        <v>463</v>
+      </c>
+      <c r="H31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" t="s">
+        <v>424</v>
+      </c>
+      <c r="G32" t="s">
+        <v>464</v>
+      </c>
+      <c r="H32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" t="s">
+        <v>470</v>
+      </c>
+      <c r="H33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" t="s">
+        <v>466</v>
+      </c>
+      <c r="H34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" t="s">
+        <v>428</v>
+      </c>
+      <c r="G35" t="s">
+        <v>468</v>
+      </c>
+      <c r="H35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" t="s">
+        <v>431</v>
+      </c>
+      <c r="G36" t="s">
+        <v>472</v>
+      </c>
+      <c r="H36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" t="s">
+        <v>479</v>
+      </c>
+      <c r="H37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
+        <v>434</v>
+      </c>
+      <c r="G38" t="s">
+        <v>480</v>
+      </c>
+      <c r="H38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>435</v>
+      </c>
+      <c r="G39" t="s">
+        <v>482</v>
+      </c>
+      <c r="H39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" t="s">
+        <v>436</v>
+      </c>
+      <c r="G40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G41" t="s">
+        <v>490</v>
+      </c>
+      <c r="H41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" t="s">
+        <v>493</v>
+      </c>
+      <c r="H42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" t="s">
+        <v>439</v>
+      </c>
+      <c r="G43" t="s">
+        <v>494</v>
+      </c>
+      <c r="H43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" t="s">
+        <v>441</v>
+      </c>
+      <c r="G44" t="s">
+        <v>497</v>
+      </c>
+      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>442</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>367</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>3000</v>
+      </c>
+      <c r="E84">
+        <v>33333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E124">
+    <sortCondition ref="B1:B124"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E84"/>
     </sheetView>
   </sheetViews>
@@ -2577,4 +5327,1026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03259316-B8DB-4A34-BD12-09926A74E734}">
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection sqref="A1:B124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>422</v>
+      </c>
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>423</v>
+      </c>
+      <c r="B46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>424</v>
+      </c>
+      <c r="B47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>429</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>431</v>
+      </c>
+      <c r="B54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>432</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>434</v>
+      </c>
+      <c r="B57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>436</v>
+      </c>
+      <c r="B59" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>440</v>
+      </c>
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>445</v>
+      </c>
+      <c r="B68" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>448</v>
+      </c>
+      <c r="B71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>449</v>
+      </c>
+      <c r="B72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>450</v>
+      </c>
+      <c r="B73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>451</v>
+      </c>
+      <c r="B74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>453</v>
+      </c>
+      <c r="B76" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>455</v>
+      </c>
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>457</v>
+      </c>
+      <c r="B80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>458</v>
+      </c>
+      <c r="B81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>459</v>
+      </c>
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>460</v>
+      </c>
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>462</v>
+      </c>
+      <c r="B85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>470</v>
+      </c>
+      <c r="B88" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>465</v>
+      </c>
+      <c r="B89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>466</v>
+      </c>
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>467</v>
+      </c>
+      <c r="B91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>468</v>
+      </c>
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>469</v>
+      </c>
+      <c r="B93" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>471</v>
+      </c>
+      <c r="B94" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>473</v>
+      </c>
+      <c r="B96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>474</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>475</v>
+      </c>
+      <c r="B98" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>476</v>
+      </c>
+      <c r="B99" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>477</v>
+      </c>
+      <c r="B100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>478</v>
+      </c>
+      <c r="B101" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>479</v>
+      </c>
+      <c r="B102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>480</v>
+      </c>
+      <c r="B103" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>481</v>
+      </c>
+      <c r="B104" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>482</v>
+      </c>
+      <c r="B105" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>483</v>
+      </c>
+      <c r="B106" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>484</v>
+      </c>
+      <c r="B107" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>485</v>
+      </c>
+      <c r="B108" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B110" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>488</v>
+      </c>
+      <c r="B111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>489</v>
+      </c>
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>490</v>
+      </c>
+      <c r="B113" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>491</v>
+      </c>
+      <c r="B114" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>492</v>
+      </c>
+      <c r="B115" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>493</v>
+      </c>
+      <c r="B116" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>494</v>
+      </c>
+      <c r="B117" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>495</v>
+      </c>
+      <c r="B118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>496</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>497</v>
+      </c>
+      <c r="B120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>498</v>
+      </c>
+      <c r="B121" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>500</v>
+      </c>
+      <c r="B123" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>501</v>
+      </c>
+      <c r="B124" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>502</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B126">
+    <sortCondition ref="B1:B126"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>